--- a/res.xlsx
+++ b/res.xlsx
@@ -75,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -90,6 +90,7 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P22"/>
+  <dimension ref="B2:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,10 +673,10 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>83.143</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>80.833</v>
+        <v>64.667</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>80.833</v>
@@ -713,6 +714,12 @@
       <c r="P5" s="4" t="n">
         <v>80.833</v>
       </c>
+      <c r="Q5" t="n">
+        <v>80.833</v>
+      </c>
+      <c r="R5" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
@@ -721,7 +728,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1957</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>1957</v>
@@ -762,6 +769,12 @@
       <c r="P6" s="4" t="n">
         <v>1957</v>
       </c>
+      <c r="Q6" t="n">
+        <v>1957</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1957</v>
+      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -770,10 +783,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.04248485290897146</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04130471810594447</v>
+        <v>0.03304377448475558</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.04130471810594447</v>
@@ -811,6 +824,12 @@
       <c r="P7" s="5" t="n">
         <v>0.04130471810594447</v>
       </c>
+      <c r="Q7" s="6" t="n">
+        <v>0.04130471810594447</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>0.04956566172713336</v>
+      </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
@@ -819,46 +838,52 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>219</v>
+        <v>174.667</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>221.833</v>
+        <v>217.667</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>219.333</v>
+        <v>217.667</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>220.167</v>
+        <v>217.833</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>219.333</v>
+        <v>217.5</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>222.167</v>
+        <v>217.667</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>219.167</v>
+        <v>217.667</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>220</v>
+        <v>217.333</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>220</v>
+        <v>218.167</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>218.5</v>
+        <v>218.167</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>218.833</v>
+        <v>218.333</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>218.833</v>
+        <v>218.333</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>218</v>
+      </c>
+      <c r="R8" t="n">
+        <v>261.6</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -868,7 +893,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1998</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1998</v>
@@ -909,6 +934,12 @@
       <c r="P9" s="4" t="n">
         <v>1998</v>
       </c>
+      <c r="Q9" t="n">
+        <v>1998</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1998</v>
+      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -917,46 +948,52 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1126126126126126</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1096096096096096</v>
+        <v>0.08742075408742075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1110276943610277</v>
+        <v>0.1089422756089423</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1096096096096096</v>
+        <v>0.1091091091091091</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1097764431097765</v>
+        <v>0.1089422756089423</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1101935268601935</v>
+        <v>0.1090256923590257</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.1097764431097765</v>
+        <v>0.1088588588588589</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1111945278611945</v>
+        <v>0.1089422756089423</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.109693026359693</v>
+        <v>0.1089422756089423</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0.1101101101101101</v>
+        <v>0.1087754421087754</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.1101101101101101</v>
+        <v>0.1091925258591925</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1093593593593594</v>
+        <v>0.1091925258591925</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.1095261928595262</v>
+        <v>0.109275942609276</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.1095261928595262</v>
+        <v>0.109275942609276</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>0.1091091091091091</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>0.1309309309309309</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -966,40 +1003,40 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>101</v>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>99</v>
-      </c>
       <c r="G11" s="4" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>100</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>100</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O11" s="4" t="n">
         <v>100</v>
@@ -1007,6 +1044,12 @@
       <c r="P11" s="4" t="n">
         <v>100</v>
       </c>
+      <c r="Q11" t="n">
+        <v>100</v>
+      </c>
+      <c r="R11" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="B12" s="2" t="inlineStr">
@@ -1056,6 +1099,12 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -1064,46 +1113,52 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>100</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>99</v>
       </c>
       <c r="K13" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="O13" s="4" t="n">
         <v>98</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="M13" s="4" t="n">
+      <c r="P13" s="4" t="n">
         <v>98</v>
       </c>
-      <c r="N13" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="O13" s="4" t="n">
+      <c r="Q13" t="n">
         <v>99</v>
       </c>
-      <c r="P13" s="4" t="n">
-        <v>99</v>
+      <c r="R13" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="1">
@@ -1113,7 +1168,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -1152,6 +1207,12 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,6 +1264,12 @@
       <c r="P15" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="B16" s="2" t="inlineStr">
@@ -1211,46 +1278,52 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0.165</v>
+        <v>0.223</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.157</v>
+        <v>0.292</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>0.263</v>
+        <v>0.187</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.067</v>
+        <v>0.148</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>0.113</v>
+        <v>0.267</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.202</v>
+        <v>0.17</v>
       </c>
       <c r="J16" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="O16" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="K16" s="4" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="L16" s="4" t="n">
-        <v>0.123</v>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v>0.228</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O16" s="4" t="n">
-        <v>0.093</v>
-      </c>
       <c r="P16" s="4" t="n">
-        <v>0.093</v>
+        <v>0.31</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.212</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -1260,46 +1333,52 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0.205</v>
+        <v>0.193</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.172</v>
+        <v>0.272</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0.447</v>
+        <v>0.177</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0.113</v>
+        <v>0.228</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0.138</v>
+        <v>0.18</v>
       </c>
       <c r="I17" s="4" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O17" s="4" t="n">
         <v>0.225</v>
       </c>
-      <c r="J17" s="4" t="n">
-        <v>0.373</v>
-      </c>
-      <c r="K17" s="4" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="L17" s="4" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="M17" s="4" t="n">
-        <v>0.298</v>
-      </c>
-      <c r="N17" s="4" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="O17" s="4" t="n">
-        <v>0.135</v>
-      </c>
       <c r="P17" s="4" t="n">
-        <v>0.135</v>
+        <v>0.225</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.216</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -1309,46 +1388,52 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>0.227</v>
+        <v>0.187</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0.175</v>
+        <v>0.25</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>0.423</v>
+        <v>0.193</v>
       </c>
       <c r="G18" s="4" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0.192</v>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="L18" s="4" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="M18" s="4" t="n">
-        <v>0.268</v>
-      </c>
-      <c r="N18" s="4" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="O18" s="4" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="P18" s="4" t="n">
-        <v>0.145</v>
+      <c r="R18" t="n">
+        <v>0.238</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -1358,46 +1443,52 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>78.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>76.417</v>
+        <v>60.933</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>76.417</v>
+        <v>76.167</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>76.167</v>
+      </c>
+      <c r="R19" t="n">
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="1">
@@ -1407,46 +1498,52 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>13634.143</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>13257.833</v>
+        <v>11028.333</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>13260.167</v>
+        <v>13787.333</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>13262.667</v>
+        <v>13789.833</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>13264.667</v>
+        <v>13791.833</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>13266.667</v>
+        <v>13794.167</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>13269</v>
+        <v>13796.333</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>13271.333</v>
+        <v>13798.667</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>13273.5</v>
+        <v>13800.833</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>13275.5</v>
+        <v>13803.167</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>13277.833</v>
+        <v>13805.333</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>13280</v>
+        <v>13807.667</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>13282</v>
+        <v>13810</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>13282</v>
+        <v>13810</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>13814.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>16579.8</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1">
@@ -1456,7 +1553,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>38262</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>38262</v>
@@ -1497,6 +1594,12 @@
       <c r="P21" s="4" t="n">
         <v>38262</v>
       </c>
+      <c r="Q21" t="n">
+        <v>38262</v>
+      </c>
+      <c r="R21" t="n">
+        <v>38262</v>
+      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -1505,46 +1608,52 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.3563363874638769</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3465013154914363</v>
+        <v>0.2882320143571516</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3465622985381492</v>
+        <v>0.3603401111633823</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3466276375167703</v>
+        <v>0.3604054501420034</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3466799086996672</v>
+        <v>0.3604577213249003</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3467321798825641</v>
+        <v>0.3605187043716133</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.3467931629292771</v>
+        <v>0.3605753314864182</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3468541459759901</v>
+        <v>0.3606363145331312</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.346910773090795</v>
+        <v>0.3606929416479362</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>0.3469630442736919</v>
+        <v>0.3607539246946492</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>0.3470240273204049</v>
+        <v>0.3608105518094541</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3470806544352099</v>
+        <v>0.3608715348561671</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>0.3471329256181067</v>
+        <v>0.3609325179028802</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0.3471329256181067</v>
+        <v>0.3609325179028802</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>0.3610501280643981</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>0.4333228790967539</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -1646,7 +1755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P25"/>
+  <dimension ref="B2:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1860,10 +1969,10 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>49.714</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>48.333</v>
+        <v>38.667</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>48.333</v>
@@ -1901,6 +2010,12 @@
       <c r="P5" s="4" t="n">
         <v>48.333</v>
       </c>
+      <c r="Q5" t="n">
+        <v>48.333</v>
+      </c>
+      <c r="R5" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
@@ -1909,7 +2024,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1019</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>1019</v>
@@ -1950,6 +2065,12 @@
       <c r="P6" s="4" t="n">
         <v>1019</v>
       </c>
+      <c r="Q6" t="n">
+        <v>1019</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1019</v>
+      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -1958,10 +2079,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.04878732651058461</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0474321229964017</v>
+        <v>0.03794569839712136</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.0474321229964017</v>
@@ -1999,6 +2120,12 @@
       <c r="P7" s="5" t="n">
         <v>0.0474321229964017</v>
       </c>
+      <c r="Q7" s="6" t="n">
+        <v>0.0474321229964017</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>0.05691854759568204</v>
+      </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
@@ -2007,46 +2134,52 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>210.571</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>205.333</v>
+        <v>174.667</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>204.833</v>
+        <v>217.5</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>204.5</v>
+        <v>217.833</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>204</v>
+        <v>215.333</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>203.5</v>
+        <v>216.833</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>202.5</v>
+        <v>216.5</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>203.667</v>
+        <v>216</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>202.5</v>
+        <v>215.667</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>217.5</v>
+        <v>215.667</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>218.5</v>
+        <v>215.833</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>218.5</v>
+        <v>215.833</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>215.333</v>
+      </c>
+      <c r="R8" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -2056,7 +2189,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>981</v>
@@ -2097,6 +2230,12 @@
       <c r="P9" s="4" t="n">
         <v>981</v>
       </c>
+      <c r="Q9" t="n">
+        <v>981</v>
+      </c>
+      <c r="R9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -2105,46 +2244,52 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2146497742828018</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2093102276588515</v>
+        <v>0.1780496092422698</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.208800543662929</v>
+        <v>0.2217125382262997</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2089704383282365</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.208460754332314</v>
+        <v>0.2220523275569147</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2079510703363914</v>
+        <v>0.2195039075773021</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.2074413863404689</v>
+        <v>0.2210329595650697</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2064220183486239</v>
+        <v>0.2206931702344546</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2076112810057764</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0.2064220183486239</v>
+        <v>0.2198436969079171</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.2217125382262997</v>
+        <v>0.2198436969079171</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.2227319062181448</v>
+        <v>0.2200135915732246</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.2227319062181448</v>
+        <v>0.2200135915732246</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>0.2195039075773021</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>0.2650356778797146</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -2154,40 +2299,40 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>69</v>
-      </c>
       <c r="I11" s="4" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K11" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="L11" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="L11" s="4" t="n">
-        <v>68</v>
-      </c>
       <c r="M11" s="4" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O11" s="4" t="n">
         <v>70</v>
@@ -2195,6 +2340,12 @@
       <c r="P11" s="4" t="n">
         <v>70</v>
       </c>
+      <c r="Q11" t="n">
+        <v>70</v>
+      </c>
+      <c r="R11" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="B12" s="2" t="inlineStr">
@@ -2244,6 +2395,12 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -2252,40 +2409,40 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>66</v>
-      </c>
       <c r="F13" s="4" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K13" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="L13" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <v>66</v>
-      </c>
       <c r="M13" s="4" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O13" s="4" t="n">
         <v>68</v>
@@ -2293,6 +2450,12 @@
       <c r="P13" s="4" t="n">
         <v>68</v>
       </c>
+      <c r="Q13" t="n">
+        <v>68</v>
+      </c>
+      <c r="R13" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="B14" s="2" t="inlineStr">
@@ -2301,7 +2464,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -2340,6 +2503,12 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2350,7 +2519,7 @@
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>1</v>
@@ -2389,6 +2558,12 @@
         <v>1</v>
       </c>
       <c r="P15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2399,46 +2574,52 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="O16" s="4" t="n">
         <v>0.007</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="L16" s="4" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="O16" s="4" t="n">
+      <c r="P16" s="4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.035</v>
       </c>
-      <c r="P16" s="4" t="n">
-        <v>0.035</v>
+      <c r="R16" t="n">
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -2448,46 +2629,52 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0.012</v>
+        <v>0.033</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.003</v>
+        <v>0.043</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0.005</v>
+        <v>0.028</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0.038</v>
+        <v>0.033</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0.028</v>
+        <v>0.023</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>0.007</v>
+        <v>0.06</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>0.02</v>
+        <v>0.048</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0.03</v>
+        <v>0.048</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>0.017</v>
+        <v>0.062</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>0.015</v>
+        <v>0.033</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>0.025</v>
+        <v>0.018</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0.025</v>
+        <v>0.018</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.058</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -2500,43 +2687,49 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>0.002</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="J18" s="4" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0.003</v>
       </c>
-      <c r="K18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N18" s="4" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="O18" s="4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="P18" s="4" t="n">
-        <v>0.005</v>
+      <c r="R18" t="n">
+        <v>0.012</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -2546,46 +2739,52 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>81.75700000000001</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>77.383</v>
+        <v>62.7</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>79.333</v>
+        <v>74.45</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>77.967</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>78.84999999999999</v>
+        <v>76.45</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>79.31699999999999</v>
+        <v>73.333</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>79.43300000000001</v>
+        <v>75.717</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>79.40000000000001</v>
+        <v>71.767</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>77.84999999999999</v>
+        <v>77.917</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>76.75</v>
+        <v>78.367</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>80.267</v>
+        <v>78.883</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>78.383</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>76.90000000000001</v>
+        <v>77.367</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>76.90000000000001</v>
+        <v>77.367</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>75.15000000000001</v>
+      </c>
+      <c r="R19" t="n">
+        <v>92.34</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="1">
@@ -2595,10 +2794,10 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>40.833</v>
+        <v>32.667</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>40.833</v>
@@ -2636,6 +2835,12 @@
       <c r="P20" s="4" t="n">
         <v>40.833</v>
       </c>
+      <c r="Q20" t="n">
+        <v>40.833</v>
+      </c>
+      <c r="R20" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" ht="22" customHeight="1">
       <c r="B21" s="2" t="inlineStr">
@@ -2644,7 +2849,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>236</v>
@@ -2685,6 +2890,12 @@
       <c r="P21" s="4" t="n">
         <v>236</v>
       </c>
+      <c r="Q21" t="n">
+        <v>236</v>
+      </c>
+      <c r="R21" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -2693,10 +2904,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1779661016949153</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1730225988700565</v>
+        <v>0.1384180790960452</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1730225988700565</v>
@@ -2734,6 +2945,12 @@
       <c r="P22" s="5" t="n">
         <v>0.1730225988700565</v>
       </c>
+      <c r="Q22" s="6" t="n">
+        <v>0.1730225988700565</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>0.2076271186440678</v>
+      </c>
     </row>
     <row r="23" ht="22" customHeight="1">
       <c r="B23" s="2" t="inlineStr">
@@ -2742,46 +2959,49 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>3003.429</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>2920</v>
+        <v>2423.333</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>2920</v>
+        <v>3030</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>2920</v>
+        <v>3030</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>2920.333</v>
+        <v>3030.833</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>2920.833</v>
+        <v>3030.833</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>2920.833</v>
+        <v>3031.667</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>2920.833</v>
+        <v>3032.333</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>2920.833</v>
+        <v>3032.5</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>2920.833</v>
+        <v>3033.333</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>2924.167</v>
+        <v>3033.333</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>2924.167</v>
+        <v>3034</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>2924.167</v>
+        <v>3034.167</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>2924.167</v>
+        <v>3034.167</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3035</v>
       </c>
     </row>
     <row r="24" ht="22" customHeight="1">
@@ -2791,7 +3011,7 @@
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>23822</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>23822</v>
@@ -2832,6 +3052,9 @@
       <c r="P24" s="4" t="n">
         <v>23822</v>
       </c>
+      <c r="Q24" t="n">
+        <v>23822</v>
+      </c>
     </row>
     <row r="25" ht="22" customHeight="1">
       <c r="B25" s="2" t="inlineStr">
@@ -2840,46 +3063,49 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1260779351619751</v>
+        <v>0</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.1225757702963647</v>
+        <v>0.1017266952117091</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.1225757702963647</v>
+        <v>0.1271933506842415</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1225757702963647</v>
+        <v>0.1271933506842415</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.1225897629642068</v>
+        <v>0.1272283323538466</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.1226107519659698</v>
+        <v>0.1272283323538466</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.1226107519659698</v>
+        <v>0.1272633140234517</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1226107519659698</v>
+        <v>0.1272912993591358</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.1226107519659698</v>
+        <v>0.1272982956930568</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>0.1226107519659698</v>
+        <v>0.127333277362662</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>0.1227506786443903</v>
+        <v>0.127333277362662</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1227506786443903</v>
+        <v>0.1273612626983461</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>0.1227506786443903</v>
+        <v>0.1273682590322671</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>0.1227506786443903</v>
+        <v>0.1273682590322671</v>
+      </c>
+      <c r="Q25" s="6" t="n">
+        <v>0.1274032407018722</v>
       </c>
     </row>
     <row r="26" ht="22" customHeight="1"/>
@@ -2978,7 +3204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P22"/>
+  <dimension ref="B2:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,46 +3418,52 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.714</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>13.333</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.333</v>
+        <v>20</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>20</v>
+      </c>
+      <c r="R5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="22" customHeight="1">
@@ -3241,7 +3473,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>1144</v>
@@ -3282,6 +3514,12 @@
       <c r="P6" s="4" t="n">
         <v>1144</v>
       </c>
+      <c r="Q6" t="n">
+        <v>1144</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1144</v>
+      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -3290,46 +3528,52 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.01198801198801199</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.01748251748251748</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>0.01748251748251748</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>0.02097902097902098</v>
       </c>
     </row>
     <row r="8" ht="22" customHeight="1">
@@ -3339,46 +3583,52 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>156.429</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>152</v>
+        <v>117.333</v>
       </c>
       <c r="E8" s="4" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>153.667</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>149.333</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>148.667</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>154</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>152.833</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>156.333</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>154.833</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>154.5</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>153</v>
-      </c>
-      <c r="J8" s="4" t="n">
+      <c r="K8" s="4" t="n">
+        <v>152.333</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>157.833</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>153.667</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>155.333</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="Q8" t="n">
         <v>155.5</v>
       </c>
-      <c r="K8" s="4" t="n">
-        <v>156.667</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>156.167</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>156.5</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>160.667</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>160.167</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>160.167</v>
+      <c r="R8" t="n">
+        <v>185.6</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -3388,7 +3638,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>990</v>
@@ -3429,6 +3679,12 @@
       <c r="P9" s="4" t="n">
         <v>990</v>
       </c>
+      <c r="Q9" t="n">
+        <v>990</v>
+      </c>
+      <c r="R9" t="n">
+        <v>990</v>
+      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -3437,46 +3693,52 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.158008658008658</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1535353535353535</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="E10" s="5" t="n">
+        <v>0.152020202020202</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1552188552188552</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1508417508417509</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1501683501683501</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.1555555555555556</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>0.1543771043771044</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>0.1579124579124579</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0.1563973063973064</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0.1560606060606061</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>0.1545454545454545</v>
-      </c>
-      <c r="J10" s="5" t="n">
+      <c r="K10" s="5" t="n">
+        <v>0.1538720538720539</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1594276094276094</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.1552188552188552</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.1569023569023569</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.1575757575757576</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.1575757575757576</v>
+      </c>
+      <c r="Q10" s="6" t="n">
         <v>0.1570707070707071</v>
       </c>
-      <c r="K10" s="5" t="n">
-        <v>0.1582491582491583</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0.1577441077441077</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0.1580808080808081</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0.1622895622895623</v>
-      </c>
-      <c r="O10" s="5" t="n">
-        <v>0.1617845117845118</v>
-      </c>
-      <c r="P10" s="5" t="n">
-        <v>0.1617845117845118</v>
+      <c r="R10" s="6" t="n">
+        <v>0.1874747474747475</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -3486,10 +3748,10 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>74</v>
@@ -3498,7 +3760,7 @@
         <v>74</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>74</v>
@@ -3507,13 +3769,13 @@
         <v>74</v>
       </c>
       <c r="J11" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="K11" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="K11" s="4" t="n">
-        <v>76</v>
-      </c>
       <c r="L11" s="4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>74</v>
@@ -3527,6 +3789,12 @@
       <c r="P11" s="4" t="n">
         <v>76</v>
       </c>
+      <c r="Q11" t="n">
+        <v>75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="B12" s="2" t="inlineStr">
@@ -3576,6 +3844,12 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -3584,37 +3858,37 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>73</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>74</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>73</v>
       </c>
       <c r="J13" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="K13" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="K13" s="4" t="n">
-        <v>76</v>
-      </c>
       <c r="L13" s="4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N13" s="4" t="n">
         <v>74</v>
@@ -3625,6 +3899,12 @@
       <c r="P13" s="4" t="n">
         <v>75</v>
       </c>
+      <c r="Q13" t="n">
+        <v>74</v>
+      </c>
+      <c r="R13" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="B14" s="2" t="inlineStr">
@@ -3633,7 +3913,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -3672,6 +3952,12 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,6 +4009,12 @@
       <c r="P15" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="B16" s="2" t="inlineStr">
@@ -3731,46 +4023,52 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0.058</v>
+        <v>0.01</v>
       </c>
       <c r="E16" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="N16" s="4" t="n">
         <v>0.017</v>
       </c>
-      <c r="F16" s="4" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="L16" s="4" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>0.045</v>
-      </c>
       <c r="O16" s="4" t="n">
-        <v>0.057</v>
+        <v>0.025</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0.057</v>
+        <v>0.025</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.004</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -3780,46 +4078,52 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="J17" s="4" t="n">
         <v>0.047</v>
       </c>
-      <c r="D17" s="4" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G17" s="4" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="J17" s="4" t="n">
+      <c r="K17" s="4" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0.023</v>
       </c>
-      <c r="K17" s="4" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="L17" s="4" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="M17" s="4" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="N17" s="4" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="O17" s="4" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="P17" s="4" t="n">
-        <v>0.032</v>
+      <c r="R17" t="n">
+        <v>0.018</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -3829,46 +4133,52 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="n">
         <v>0.003</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>0.002</v>
-      </c>
       <c r="H18" s="4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>0.003</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0.002</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N18" s="4" t="n">
         <v>0.002</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -3878,46 +4188,52 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>83.82899999999999</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>81.5</v>
+        <v>64.93300000000001</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>81.5</v>
+        <v>81.167</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>81.167</v>
+      </c>
+      <c r="R19" t="n">
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="1">
@@ -3927,46 +4243,52 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>2431.714</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>2364.167</v>
+        <v>1950.667</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>2364.167</v>
+        <v>2438.333</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>2365</v>
+        <v>2439.167</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>2365</v>
+        <v>2439.167</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>2365</v>
+        <v>2439.167</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>2365</v>
+        <v>2439.333</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>2365</v>
+        <v>2440.333</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>2365.5</v>
+        <v>2440.167</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>2365.833</v>
+        <v>2440</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>2365.833</v>
+        <v>2440.667</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>2366.5</v>
+        <v>2441.167</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>2366</v>
+        <v>2441</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>2366</v>
+        <v>2441</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2441.667</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2930</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1">
@@ -3976,7 +4298,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>49011</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>49011</v>
@@ -4017,6 +4339,12 @@
       <c r="P21" s="4" t="n">
         <v>49011</v>
       </c>
+      <c r="Q21" t="n">
+        <v>49011</v>
+      </c>
+      <c r="R21" t="n">
+        <v>49011</v>
+      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -4025,46 +4353,52 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.04961568394267176</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04823747049981977</v>
+        <v>0.03980058898342549</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.04823747049981977</v>
+        <v>0.04975073622928187</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.04825447348554406</v>
+        <v>0.04976773921500615</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.04825447348554406</v>
+        <v>0.04976773921500615</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.04825447348554406</v>
+        <v>0.04976773921500615</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.04825447348554406</v>
+        <v>0.04977113981215102</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.04825447348554406</v>
+        <v>0.04979154339502017</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.04826467527697863</v>
+        <v>0.0497881427978753</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>0.04827147647126836</v>
+        <v>0.04978474220073045</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>0.04827147647126836</v>
+        <v>0.04979834458930988</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.04828507885984779</v>
+        <v>0.04980854638074446</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>0.04827487706841321</v>
+        <v>0.0498051457835996</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0.04827487706841321</v>
+        <v>0.0498051457835996</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>0.04981874817217903</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>0.05978249780661484</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -4166,7 +4500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P22"/>
+  <dimension ref="B2:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4421,6 +4755,12 @@
       <c r="P5" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
@@ -4429,7 +4769,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>134</v>
@@ -4470,6 +4810,12 @@
       <c r="P6" s="4" t="n">
         <v>134</v>
       </c>
+      <c r="Q6" t="n">
+        <v>134</v>
+      </c>
+      <c r="R6" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -4519,6 +4865,12 @@
       <c r="P7" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
@@ -4527,46 +4879,52 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>34.286</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>33.333</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>33.333</v>
+        <v>35</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>35</v>
+      </c>
+      <c r="R8" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -4576,7 +4934,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>234</v>
@@ -4617,6 +4975,12 @@
       <c r="P9" s="4" t="n">
         <v>234</v>
       </c>
+      <c r="Q9" t="n">
+        <v>234</v>
+      </c>
+      <c r="R9" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -4625,46 +4989,52 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1465201465201465</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1196581196581197</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.1495726495726496</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>0.1495726495726496</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -4674,10 +5044,10 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>72</v>
@@ -4715,6 +5085,12 @@
       <c r="P11" s="4" t="n">
         <v>72</v>
       </c>
+      <c r="Q11" t="n">
+        <v>72</v>
+      </c>
+      <c r="R11" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="B12" s="2" t="inlineStr">
@@ -4764,6 +5140,12 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -4772,10 +5154,10 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>72</v>
@@ -4813,6 +5195,12 @@
       <c r="P13" s="4" t="n">
         <v>72</v>
       </c>
+      <c r="Q13" t="n">
+        <v>72</v>
+      </c>
+      <c r="R13" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="B14" s="2" t="inlineStr">
@@ -4821,7 +5209,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -4860,6 +5248,12 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,6 +5305,12 @@
       <c r="P15" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="B16" s="2" t="inlineStr">
@@ -4919,37 +5319,37 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
         <v>0</v>
@@ -4958,6 +5358,12 @@
         <v>0</v>
       </c>
       <c r="P16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="R16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4968,45 +5374,51 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0.01</v>
       </c>
-      <c r="J17" s="4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="N17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4" t="n">
+      <c r="R17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5017,45 +5429,51 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="E18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="F18" s="4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>0.002</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0.003</v>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4" t="n">
+      <c r="R18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5066,10 +5484,10 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>85.114</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>82.75</v>
+        <v>66.2</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>82.75</v>
@@ -5107,6 +5525,12 @@
       <c r="P19" s="4" t="n">
         <v>82.75</v>
       </c>
+      <c r="Q19" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>99.3</v>
+      </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="B20" s="2" t="inlineStr">
@@ -5115,10 +5539,10 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>1269.429</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>1234.167</v>
+        <v>987.333</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1234.167</v>
@@ -5156,6 +5580,12 @@
       <c r="P20" s="4" t="n">
         <v>1234.167</v>
       </c>
+      <c r="Q20" t="n">
+        <v>1234.167</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1481</v>
+      </c>
     </row>
     <row r="21" ht="22" customHeight="1">
       <c r="B21" s="2" t="inlineStr">
@@ -5164,7 +5594,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1848</v>
@@ -5205,6 +5635,12 @@
       <c r="P21" s="4" t="n">
         <v>1848</v>
       </c>
+      <c r="Q21" t="n">
+        <v>1848</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1848</v>
+      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -5212,47 +5648,53 @@
           <t>HDD (xvda1) %</t>
         </is>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6869202226345082</v>
-      </c>
-      <c r="D22" s="6" t="n">
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5342712842712843</v>
+      </c>
+      <c r="E22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="F22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="G22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="H22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="H22" s="6" t="n">
+      <c r="I22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="J22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="J22" s="6" t="n">
+      <c r="K22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="K22" s="6" t="n">
+      <c r="L22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="L22" s="6" t="n">
+      <c r="M22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="M22" s="6" t="n">
+      <c r="N22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="N22" s="6" t="n">
+      <c r="O22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="P22" s="7" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="P22" s="6" t="n">
+      <c r="Q22" s="6" t="n">
         <v>0.6678391053391054</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>0.8014069264069265</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -5354,7 +5796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P22"/>
+  <dimension ref="B2:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5609,6 +6051,12 @@
       <c r="P5" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
@@ -5617,7 +6065,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>134</v>
@@ -5658,6 +6106,12 @@
       <c r="P6" s="4" t="n">
         <v>134</v>
       </c>
+      <c r="Q6" t="n">
+        <v>134</v>
+      </c>
+      <c r="R6" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -5707,6 +6161,12 @@
       <c r="P7" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
@@ -5715,10 +6175,10 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>34.286</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>33.333</v>
+        <v>26.667</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>33.333</v>
@@ -5756,6 +6216,12 @@
       <c r="P8" s="4" t="n">
         <v>33.333</v>
       </c>
+      <c r="Q8" t="n">
+        <v>33.333</v>
+      </c>
+      <c r="R8" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" ht="22" customHeight="1">
       <c r="B9" s="2" t="inlineStr">
@@ -5764,7 +6230,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>234</v>
@@ -5805,6 +6271,12 @@
       <c r="P9" s="4" t="n">
         <v>234</v>
       </c>
+      <c r="Q9" t="n">
+        <v>234</v>
+      </c>
+      <c r="R9" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -5813,10 +6285,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1465201465201465</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1424501424501425</v>
+        <v>0.113960113960114</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1424501424501425</v>
@@ -5854,6 +6326,12 @@
       <c r="P10" s="5" t="n">
         <v>0.1424501424501425</v>
       </c>
+      <c r="Q10" s="6" t="n">
+        <v>0.1424501424501425</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>0.1709401709401709</v>
+      </c>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="B11" s="2" t="inlineStr">
@@ -5862,10 +6340,10 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>72</v>
@@ -5903,6 +6381,12 @@
       <c r="P11" s="4" t="n">
         <v>72</v>
       </c>
+      <c r="Q11" t="n">
+        <v>72</v>
+      </c>
+      <c r="R11" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="B12" s="2" t="inlineStr">
@@ -5952,6 +6436,12 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -5960,10 +6450,10 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>72</v>
@@ -6001,6 +6491,12 @@
       <c r="P13" s="4" t="n">
         <v>72</v>
       </c>
+      <c r="Q13" t="n">
+        <v>72</v>
+      </c>
+      <c r="R13" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="B14" s="2" t="inlineStr">
@@ -6009,7 +6505,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -6048,6 +6544,12 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,6 +6601,12 @@
       <c r="P15" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="B16" s="2" t="inlineStr">
@@ -6113,19 +6621,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.12</v>
+        <v>0.025</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>0</v>
@@ -6134,19 +6642,25 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.032</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -6159,23 +6673,23 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="n">
         <v>0.005</v>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>0.028</v>
-      </c>
       <c r="J17" s="4" t="n">
         <v>0</v>
       </c>
@@ -6183,19 +6697,25 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>0.007</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.006</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -6211,20 +6731,20 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="J18" s="4" t="n">
         <v>0</v>
       </c>
@@ -6232,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0.002</v>
@@ -6246,6 +6766,12 @@
       <c r="P18" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.002</v>
+      </c>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="B19" s="2" t="inlineStr">
@@ -6254,10 +6780,10 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>85.114</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>82.75</v>
+        <v>66.2</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>82.75</v>
@@ -6295,6 +6821,12 @@
       <c r="P19" s="4" t="n">
         <v>82.75</v>
       </c>
+      <c r="Q19" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>99.3</v>
+      </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="B20" s="2" t="inlineStr">
@@ -6303,10 +6835,10 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>1264.286</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>1229.167</v>
+        <v>983.333</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1229.167</v>
@@ -6344,6 +6876,12 @@
       <c r="P20" s="4" t="n">
         <v>1229.167</v>
       </c>
+      <c r="Q20" t="n">
+        <v>1229.167</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1475</v>
+      </c>
     </row>
     <row r="21" ht="22" customHeight="1">
       <c r="B21" s="2" t="inlineStr">
@@ -6352,7 +6890,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1848</v>
@@ -6393,6 +6931,12 @@
       <c r="P21" s="4" t="n">
         <v>1848</v>
       </c>
+      <c r="Q21" t="n">
+        <v>1848</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1848</v>
+      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -6400,47 +6944,53 @@
           <t>HDD (xvda1) %</t>
         </is>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6841372912801484</v>
-      </c>
-      <c r="D22" s="6" t="n">
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5321067821067821</v>
+      </c>
+      <c r="E22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="F22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="G22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="H22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="H22" s="6" t="n">
+      <c r="I22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="J22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="J22" s="6" t="n">
+      <c r="K22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="K22" s="6" t="n">
+      <c r="L22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="L22" s="6" t="n">
+      <c r="M22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="M22" s="6" t="n">
+      <c r="N22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="N22" s="6" t="n">
+      <c r="O22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="P22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="P22" s="6" t="n">
+      <c r="Q22" s="6" t="n">
         <v>0.6651334776334776</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>0.7981601731601732</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -6542,7 +7092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P22"/>
+  <dimension ref="B2:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6797,6 +7347,12 @@
       <c r="P5" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
@@ -6805,7 +7361,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>134</v>
@@ -6846,6 +7402,12 @@
       <c r="P6" s="4" t="n">
         <v>134</v>
       </c>
+      <c r="Q6" t="n">
+        <v>134</v>
+      </c>
+      <c r="R6" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -6895,6 +7457,12 @@
       <c r="P7" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
@@ -6903,10 +7471,10 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>33.429</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>32.5</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>32.5</v>
@@ -6921,7 +7489,7 @@
         <v>32.5</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>32.5</v>
+        <v>32.667</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>32.5</v>
@@ -6944,6 +7512,12 @@
       <c r="P8" s="4" t="n">
         <v>32.5</v>
       </c>
+      <c r="Q8" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" ht="22" customHeight="1">
       <c r="B9" s="2" t="inlineStr">
@@ -6952,7 +7526,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>234</v>
@@ -6993,6 +7567,12 @@
       <c r="P9" s="4" t="n">
         <v>234</v>
       </c>
+      <c r="Q9" t="n">
+        <v>234</v>
+      </c>
+      <c r="R9" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -7001,10 +7581,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1388888888888889</v>
@@ -7019,7 +7599,7 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1396011396011396</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0.1388888888888889</v>
@@ -7042,6 +7622,12 @@
       <c r="P10" s="5" t="n">
         <v>0.1388888888888889</v>
       </c>
+      <c r="Q10" s="6" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="B11" s="2" t="inlineStr">
@@ -7050,10 +7636,10 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>72</v>
@@ -7091,6 +7677,12 @@
       <c r="P11" s="4" t="n">
         <v>72</v>
       </c>
+      <c r="Q11" t="n">
+        <v>72</v>
+      </c>
+      <c r="R11" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="B12" s="2" t="inlineStr">
@@ -7140,6 +7732,12 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -7148,10 +7746,10 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>72</v>
@@ -7189,6 +7787,12 @@
       <c r="P13" s="4" t="n">
         <v>72</v>
       </c>
+      <c r="Q13" t="n">
+        <v>72</v>
+      </c>
+      <c r="R13" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="B14" s="2" t="inlineStr">
@@ -7197,7 +7801,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -7236,6 +7840,12 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7287,6 +7897,12 @@
       <c r="P15" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="B16" s="2" t="inlineStr">
@@ -7301,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>0</v>
@@ -7310,30 +7926,36 @@
         <v>0</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7350,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>0</v>
@@ -7359,30 +7981,36 @@
         <v>0</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0.002</v>
       </c>
-      <c r="N17" s="4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="O17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4" t="n">
+      <c r="R17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7399,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>0</v>
@@ -7408,30 +8036,36 @@
         <v>0</v>
       </c>
       <c r="H18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="n">
         <v>0.007</v>
       </c>
-      <c r="I18" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7442,10 +8076,10 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>85.2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>82.833</v>
+        <v>66.267</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>82.833</v>
@@ -7483,6 +8117,12 @@
       <c r="P19" s="4" t="n">
         <v>82.833</v>
       </c>
+      <c r="Q19" t="n">
+        <v>82.833</v>
+      </c>
+      <c r="R19" t="n">
+        <v>99.40000000000001</v>
+      </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="B20" s="2" t="inlineStr">
@@ -7491,10 +8131,10 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>1264.286</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>1229.167</v>
+        <v>983.333</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1229.167</v>
@@ -7532,6 +8172,12 @@
       <c r="P20" s="4" t="n">
         <v>1229.167</v>
       </c>
+      <c r="Q20" t="n">
+        <v>1229.167</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1475</v>
+      </c>
     </row>
     <row r="21" ht="22" customHeight="1">
       <c r="B21" s="2" t="inlineStr">
@@ -7540,7 +8186,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1848</v>
@@ -7581,6 +8227,12 @@
       <c r="P21" s="4" t="n">
         <v>1848</v>
       </c>
+      <c r="Q21" t="n">
+        <v>1848</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1848</v>
+      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -7588,47 +8240,53 @@
           <t>HDD (xvda1) %</t>
         </is>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>0.6841372912801484</v>
-      </c>
-      <c r="D22" s="6" t="n">
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5321067821067821</v>
+      </c>
+      <c r="E22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="F22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="G22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="H22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="H22" s="6" t="n">
+      <c r="I22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="J22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="J22" s="6" t="n">
+      <c r="K22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="K22" s="6" t="n">
+      <c r="L22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="L22" s="6" t="n">
+      <c r="M22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="M22" s="6" t="n">
+      <c r="N22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="N22" s="6" t="n">
+      <c r="O22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="P22" s="7" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="P22" s="6" t="n">
+      <c r="Q22" s="6" t="n">
         <v>0.6651334776334776</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>0.7981601731601732</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>

--- a/res.xlsx
+++ b/res.xlsx
@@ -75,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -90,7 +90,6 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -459,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:R22"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +672,10 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>80.833</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>64.667</v>
+        <v>80.833</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>80.833</v>
@@ -714,12 +713,6 @@
       <c r="P5" s="4" t="n">
         <v>80.833</v>
       </c>
-      <c r="Q5" t="n">
-        <v>80.833</v>
-      </c>
-      <c r="R5" t="n">
-        <v>97</v>
-      </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
@@ -728,7 +721,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>1957</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>1957</v>
@@ -769,12 +762,6 @@
       <c r="P6" s="4" t="n">
         <v>1957</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1957</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1957</v>
-      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -783,10 +770,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0</v>
+        <v>0.04130471810594447</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03304377448475558</v>
+        <v>0.04130471810594447</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.04130471810594447</v>
@@ -824,12 +811,6 @@
       <c r="P7" s="5" t="n">
         <v>0.04130471810594447</v>
       </c>
-      <c r="Q7" s="6" t="n">
-        <v>0.04130471810594447</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>0.04956566172713336</v>
-      </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
@@ -838,52 +819,46 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>174.667</v>
+        <v>218</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>217.667</v>
       </c>
       <c r="F8" s="4" t="n">
+        <v>217.833</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>217.667</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>217.667</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>217.333</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>218.167</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>218.167</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>218.333</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>217.833</v>
+      </c>
+      <c r="O8" s="4" t="n">
         <v>218</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>217.667</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>217.833</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>217.667</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>217.667</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>217.333</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>218.167</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>218.167</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>218.333</v>
-      </c>
       <c r="P8" s="4" t="n">
-        <v>218.333</v>
-      </c>
-      <c r="Q8" t="n">
         <v>218</v>
-      </c>
-      <c r="R8" t="n">
-        <v>261.6</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -893,7 +868,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1998</v>
@@ -934,12 +909,6 @@
       <c r="P9" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1998</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1998</v>
-      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -948,52 +917,46 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.1091091091091091</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.08742075408742075</v>
+        <v>0.1091091091091091</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1089422756089423</v>
       </c>
       <c r="F10" s="5" t="n">
+        <v>0.1090256923590257</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1088588588588589</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1089422756089423</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.1089422756089423</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1087754421087754</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.1091925258591925</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1091925258591925</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.109275942609276</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.1090256923590257</v>
+      </c>
+      <c r="O10" s="5" t="n">
         <v>0.1091091091091091</v>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>0.1089422756089423</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0.1090256923590257</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>0.1088588588588589</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0.1089422756089423</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>0.1089422756089423</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0.1087754421087754</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0.1091925258591925</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0.1091925258591925</v>
-      </c>
-      <c r="O10" s="5" t="n">
-        <v>0.109275942609276</v>
-      </c>
       <c r="P10" s="5" t="n">
-        <v>0.109275942609276</v>
-      </c>
-      <c r="Q10" s="6" t="n">
         <v>0.1091091091091091</v>
-      </c>
-      <c r="R10" s="6" t="n">
-        <v>0.1309309309309309</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -1003,13 +966,13 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>100</v>
@@ -1044,12 +1007,6 @@
       <c r="P11" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="Q11" t="n">
-        <v>100</v>
-      </c>
-      <c r="R11" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="B12" s="2" t="inlineStr">
@@ -1099,12 +1056,6 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -1113,13 +1064,13 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>99</v>
@@ -1143,22 +1094,16 @@
         <v>99</v>
       </c>
       <c r="M13" s="4" t="n">
+        <v>98</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>98</v>
+      </c>
+      <c r="O13" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="P13" s="4" t="n">
         <v>99</v>
-      </c>
-      <c r="O13" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="P13" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>99</v>
-      </c>
-      <c r="R13" t="n">
-        <v>118</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="1">
@@ -1168,7 +1113,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -1207,12 +1152,6 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1264,12 +1203,6 @@
       <c r="P15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="B16" s="2" t="inlineStr">
@@ -1278,52 +1211,46 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0</v>
+        <v>0.187</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0.223</v>
+        <v>0.187</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.292</v>
+        <v>0.148</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>0.187</v>
+        <v>0.267</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.148</v>
+        <v>0.17</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>0.267</v>
+        <v>0.21</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.17</v>
+        <v>0.123</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0.123</v>
+        <v>0.167</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>0.23</v>
+        <v>0.173</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>0.167</v>
+        <v>0.31</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>0.173</v>
+        <v>0.118</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>0.31</v>
+        <v>0.217</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Q16" t="n">
         <v>0.217</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.212</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -1333,52 +1260,46 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0.193</v>
+        <v>0.177</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.272</v>
+        <v>0.228</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0.177</v>
+        <v>0.18</v>
       </c>
       <c r="G17" s="4" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H17" s="4" t="n">
         <v>0.228</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>0.18</v>
-      </c>
       <c r="I17" s="4" t="n">
-        <v>0.175</v>
+        <v>0.168</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>0.228</v>
+        <v>0.185</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>0.185</v>
+        <v>0.25</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>0.167</v>
+        <v>0.225</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0.25</v>
+        <v>0.143</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>0.225</v>
+        <v>0.218</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="Q17" t="n">
         <v>0.218</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.216</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -1388,52 +1309,46 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>0.187</v>
+        <v>0.193</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0.25</v>
+        <v>0.242</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>0.193</v>
+        <v>0.158</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>0.242</v>
+        <v>0.168</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>0.158</v>
+        <v>0.19</v>
       </c>
       <c r="I18" s="4" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="J18" s="4" t="n">
         <v>0.168</v>
       </c>
-      <c r="J18" s="4" t="n">
-        <v>0.19</v>
-      </c>
       <c r="K18" s="4" t="n">
-        <v>0.195</v>
+        <v>0.153</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>0.168</v>
+        <v>0.233</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>0.153</v>
+        <v>0.22</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>0.233</v>
+        <v>0.177</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>0.22</v>
+        <v>0.192</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Q18" t="n">
         <v>0.192</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.238</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -1443,10 +1358,10 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0</v>
+        <v>76.167</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>60.933</v>
+        <v>76.167</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>76.167</v>
@@ -1484,12 +1399,6 @@
       <c r="P19" s="4" t="n">
         <v>76.167</v>
       </c>
-      <c r="Q19" t="n">
-        <v>76.167</v>
-      </c>
-      <c r="R19" t="n">
-        <v>91.40000000000001</v>
-      </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="B20" s="2" t="inlineStr">
@@ -1498,52 +1407,46 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0</v>
+        <v>13789.833</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>11028.333</v>
+        <v>13789.833</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>13787.333</v>
+        <v>13791.833</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>13789.833</v>
+        <v>13794.167</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>13791.833</v>
+        <v>13796.333</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>13794.167</v>
+        <v>13798.667</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>13796.333</v>
+        <v>13800.833</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>13798.667</v>
+        <v>13803.167</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>13800.833</v>
+        <v>13805.333</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>13803.167</v>
+        <v>13807.667</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>13805.333</v>
+        <v>13810</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>13807.667</v>
+        <v>13812.333</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>13810</v>
+        <v>13814.5</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>13810</v>
-      </c>
-      <c r="Q20" t="n">
         <v>13814.5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>16579.8</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1">
@@ -1553,7 +1456,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0</v>
+        <v>38262</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>38262</v>
@@ -1594,12 +1497,6 @@
       <c r="P21" s="4" t="n">
         <v>38262</v>
       </c>
-      <c r="Q21" t="n">
-        <v>38262</v>
-      </c>
-      <c r="R21" t="n">
-        <v>38262</v>
-      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -1608,52 +1505,46 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0</v>
+        <v>0.3604054501420034</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2882320143571516</v>
+        <v>0.3604054501420034</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3603401111633823</v>
+        <v>0.3604577213249003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3604054501420034</v>
+        <v>0.3605187043716133</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3604577213249003</v>
+        <v>0.3605753314864182</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3605187043716133</v>
+        <v>0.3606363145331312</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.3605753314864182</v>
+        <v>0.3606929416479362</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3606363145331312</v>
+        <v>0.3607539246946492</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.3606929416479362</v>
+        <v>0.3608105518094541</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>0.3607539246946492</v>
+        <v>0.3608715348561671</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>0.3608105518094541</v>
+        <v>0.3609325179028802</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3608715348561671</v>
+        <v>0.3609935009495931</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>0.3609325179028802</v>
+        <v>0.3610501280643981</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0.3609325179028802</v>
-      </c>
-      <c r="Q22" s="6" t="n">
         <v>0.3610501280643981</v>
-      </c>
-      <c r="R22" s="6" t="n">
-        <v>0.4333228790967539</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -1755,7 +1646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:R25"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1969,10 +1860,10 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>48.333</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>38.667</v>
+        <v>48.333</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>48.333</v>
@@ -2010,12 +1901,6 @@
       <c r="P5" s="4" t="n">
         <v>48.333</v>
       </c>
-      <c r="Q5" t="n">
-        <v>48.333</v>
-      </c>
-      <c r="R5" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
@@ -2024,7 +1909,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>1019</v>
@@ -2065,12 +1950,6 @@
       <c r="P6" s="4" t="n">
         <v>1019</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1019</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1019</v>
-      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -2079,10 +1958,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0</v>
+        <v>0.0474321229964017</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03794569839712136</v>
+        <v>0.0474321229964017</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.0474321229964017</v>
@@ -2120,12 +1999,6 @@
       <c r="P7" s="5" t="n">
         <v>0.0474321229964017</v>
       </c>
-      <c r="Q7" s="6" t="n">
-        <v>0.0474321229964017</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>0.05691854759568204</v>
-      </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
@@ -2134,52 +2007,46 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>174.667</v>
+        <v>218</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>217.5</v>
+        <v>217.833</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>218</v>
+        <v>215.333</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>217.833</v>
+        <v>216.833</v>
       </c>
       <c r="H8" s="4" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>216</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>215.667</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>215.667</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>216</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>215.833</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>215.167</v>
+      </c>
+      <c r="O8" s="4" t="n">
         <v>215.333</v>
       </c>
-      <c r="I8" s="4" t="n">
-        <v>216.833</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>216.5</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>216</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>215.667</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>215.667</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>216</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>215.833</v>
-      </c>
       <c r="P8" s="4" t="n">
-        <v>215.833</v>
-      </c>
-      <c r="Q8" t="n">
         <v>215.333</v>
-      </c>
-      <c r="R8" t="n">
-        <v>260</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -2189,7 +2056,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>981</v>
@@ -2230,12 +2097,6 @@
       <c r="P9" s="4" t="n">
         <v>981</v>
       </c>
-      <c r="Q9" t="n">
-        <v>981</v>
-      </c>
-      <c r="R9" t="n">
-        <v>981</v>
-      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -2244,52 +2105,46 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1780496092422698</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2217125382262997</v>
+        <v>0.2220523275569147</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2195039075773021</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2220523275569147</v>
+        <v>0.2210329595650697</v>
       </c>
       <c r="H10" s="5" t="n">
+        <v>0.2206931702344546</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.2201834862385321</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.2198436969079171</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.2198436969079171</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.2201834862385321</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.2200135915732246</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.2193340129119946</v>
+      </c>
+      <c r="O10" s="5" t="n">
         <v>0.2195039075773021</v>
       </c>
-      <c r="I10" s="5" t="n">
-        <v>0.2210329595650697</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0.2206931702344546</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>0.2201834862385321</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0.2198436969079171</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0.2198436969079171</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0.2201834862385321</v>
-      </c>
-      <c r="O10" s="5" t="n">
-        <v>0.2200135915732246</v>
-      </c>
       <c r="P10" s="5" t="n">
-        <v>0.2200135915732246</v>
-      </c>
-      <c r="Q10" s="6" t="n">
         <v>0.2195039075773021</v>
-      </c>
-      <c r="R10" s="6" t="n">
-        <v>0.2650356778797146</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -2299,40 +2154,40 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="H11" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="F11" s="4" t="n">
-        <v>73</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>74</v>
-      </c>
-      <c r="H11" s="4" t="n">
+      <c r="I11" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="J11" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="I11" s="4" t="n">
-        <v>72</v>
-      </c>
-      <c r="J11" s="4" t="n">
+      <c r="K11" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L11" s="4" t="n">
         <v>71</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>71</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>70</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>70</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11" s="4" t="n">
         <v>70</v>
@@ -2340,12 +2195,6 @@
       <c r="P11" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="Q11" t="n">
-        <v>70</v>
-      </c>
-      <c r="R11" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="B12" s="2" t="inlineStr">
@@ -2395,12 +2244,6 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -2409,40 +2252,40 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="F13" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="F13" s="4" t="n">
-        <v>71</v>
-      </c>
       <c r="G13" s="4" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>69</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="L13" s="4" t="n">
         <v>69</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="L13" s="4" t="n">
-        <v>68</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>68</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O13" s="4" t="n">
         <v>68</v>
@@ -2450,12 +2293,6 @@
       <c r="P13" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="Q13" t="n">
-        <v>68</v>
-      </c>
-      <c r="R13" t="n">
-        <v>84</v>
-      </c>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="B14" s="2" t="inlineStr">
@@ -2464,7 +2301,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -2503,12 +2340,6 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2519,7 +2350,7 @@
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>1</v>
@@ -2558,12 +2389,6 @@
         <v>1</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2574,52 +2399,46 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="D16" s="4" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="N16" s="4" t="n">
         <v>0.033</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="F16" s="4" t="n">
+      <c r="O16" s="4" t="n">
         <v>0.035</v>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L16" s="4" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="O16" s="4" t="n">
-        <v>0.007</v>
-      </c>
       <c r="P16" s="4" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="Q16" t="n">
         <v>0.035</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -2629,52 +2448,46 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="D17" s="4" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>0.033</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>0.043</v>
-      </c>
       <c r="F17" s="4" t="n">
-        <v>0.028</v>
+        <v>0.023</v>
       </c>
       <c r="G17" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="K17" s="4" t="n">
         <v>0.033</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J17" s="4" t="n">
+      <c r="L17" s="4" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="N17" s="4" t="n">
         <v>0.048</v>
       </c>
-      <c r="K17" s="4" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="L17" s="4" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="M17" s="4" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="N17" s="4" t="n">
-        <v>0.037</v>
-      </c>
       <c r="O17" s="4" t="n">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="Q17" t="n">
         <v>0.022</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.058</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -2684,52 +2497,46 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>0.002</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>0.007</v>
+        <v>0.027</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>0.002</v>
+        <v>0.035</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0.027</v>
+        <v>0.008</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>0.008</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M18" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N18" s="4" t="n">
         <v>0.008</v>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="O18" s="4" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="Q18" t="n">
         <v>0.003</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.012</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -2739,52 +2546,46 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>62.7</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>74.45</v>
+        <v>76.45</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>77.34999999999999</v>
+        <v>73.333</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>76.45</v>
+        <v>75.717</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>73.333</v>
+        <v>71.767</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>75.717</v>
+        <v>77.917</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>71.767</v>
+        <v>78.367</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>77.917</v>
+        <v>78.883</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>78.367</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>78.883</v>
+        <v>77.367</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>76.90000000000001</v>
+        <v>74.383</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>77.367</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>77.367</v>
-      </c>
-      <c r="Q19" t="n">
         <v>75.15000000000001</v>
-      </c>
-      <c r="R19" t="n">
-        <v>92.34</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="1">
@@ -2794,10 +2595,10 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0</v>
+        <v>40.833</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>32.667</v>
+        <v>40.833</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>40.833</v>
@@ -2835,12 +2636,6 @@
       <c r="P20" s="4" t="n">
         <v>40.833</v>
       </c>
-      <c r="Q20" t="n">
-        <v>40.833</v>
-      </c>
-      <c r="R20" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="21" ht="22" customHeight="1">
       <c r="B21" s="2" t="inlineStr">
@@ -2849,7 +2644,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>236</v>
@@ -2890,12 +2685,6 @@
       <c r="P21" s="4" t="n">
         <v>236</v>
       </c>
-      <c r="Q21" t="n">
-        <v>236</v>
-      </c>
-      <c r="R21" t="n">
-        <v>236</v>
-      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -2904,10 +2693,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0</v>
+        <v>0.1730225988700565</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1384180790960452</v>
+        <v>0.1730225988700565</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1730225988700565</v>
@@ -2945,12 +2734,6 @@
       <c r="P22" s="5" t="n">
         <v>0.1730225988700565</v>
       </c>
-      <c r="Q22" s="6" t="n">
-        <v>0.1730225988700565</v>
-      </c>
-      <c r="R22" s="6" t="n">
-        <v>0.2076271186440678</v>
-      </c>
     </row>
     <row r="23" ht="22" customHeight="1">
       <c r="B23" s="2" t="inlineStr">
@@ -2959,48 +2742,45 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>0</v>
+        <v>3030</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>2423.333</v>
+        <v>3030</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>3030</v>
+        <v>3030.833</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>3030</v>
+        <v>3030.833</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>3030.833</v>
+        <v>3031.667</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>3030.833</v>
+        <v>3032.333</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>3031.667</v>
+        <v>3032.5</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>3032.333</v>
+        <v>3033.333</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>3032.5</v>
+        <v>3033.333</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>3033.333</v>
+        <v>3034</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>3033.333</v>
+        <v>3034.167</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>3034</v>
+        <v>3034.667</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>3034.167</v>
+        <v>3035</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>3034.167</v>
-      </c>
-      <c r="Q23" t="n">
         <v>3035</v>
       </c>
     </row>
@@ -3011,7 +2791,7 @@
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>0</v>
+        <v>23822</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>23822</v>
@@ -3052,9 +2832,6 @@
       <c r="P24" s="4" t="n">
         <v>23822</v>
       </c>
-      <c r="Q24" t="n">
-        <v>23822</v>
-      </c>
     </row>
     <row r="25" ht="22" customHeight="1">
       <c r="B25" s="2" t="inlineStr">
@@ -3063,48 +2840,45 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0</v>
+        <v>0.1271933506842415</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.1017266952117091</v>
+        <v>0.1271933506842415</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.1271933506842415</v>
+        <v>0.1272283323538466</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1271933506842415</v>
+        <v>0.1272283323538466</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.1272283323538466</v>
+        <v>0.1272633140234517</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.1272283323538466</v>
+        <v>0.1272912993591358</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.1272633140234517</v>
+        <v>0.1272982956930568</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1272912993591358</v>
+        <v>0.127333277362662</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.1272982956930568</v>
+        <v>0.127333277362662</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>0.127333277362662</v>
+        <v>0.1273612626983461</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>0.127333277362662</v>
+        <v>0.1273682590322671</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1273612626983461</v>
+        <v>0.1273892480340302</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>0.1273682590322671</v>
+        <v>0.1274032407018722</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>0.1273682590322671</v>
-      </c>
-      <c r="Q25" s="6" t="n">
         <v>0.1274032407018722</v>
       </c>
     </row>
@@ -3204,7 +2978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:R22"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3418,10 +3192,10 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>20</v>
@@ -3459,12 +3233,6 @@
       <c r="P5" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="Q5" t="n">
-        <v>20</v>
-      </c>
-      <c r="R5" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
@@ -3473,7 +3241,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>1144</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>1144</v>
@@ -3514,12 +3282,6 @@
       <c r="P6" s="4" t="n">
         <v>1144</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1144</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1144</v>
-      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -3528,10 +3290,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.01748251748251748</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.01748251748251748</v>
@@ -3569,12 +3331,6 @@
       <c r="P7" s="5" t="n">
         <v>0.01748251748251748</v>
       </c>
-      <c r="Q7" s="6" t="n">
-        <v>0.01748251748251748</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>0.02097902097902098</v>
-      </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
@@ -3583,52 +3339,46 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0</v>
+        <v>153.667</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>117.333</v>
+        <v>153.667</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>150.5</v>
+        <v>149.333</v>
       </c>
       <c r="F8" s="4" t="n">
+        <v>148.667</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>154</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>152.833</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>152.333</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>157.833</v>
+      </c>
+      <c r="K8" s="4" t="n">
         <v>153.667</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>149.333</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>148.667</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>154</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>152.833</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>152.333</v>
-      </c>
       <c r="L8" s="4" t="n">
-        <v>157.833</v>
+        <v>155.333</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>153.667</v>
+        <v>156</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>155.333</v>
+        <v>155.5</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>156</v>
+        <v>155.5</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>156</v>
-      </c>
-      <c r="Q8" t="n">
         <v>155.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>185.6</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -3638,7 +3388,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>990</v>
@@ -3679,12 +3429,6 @@
       <c r="P9" s="4" t="n">
         <v>990</v>
       </c>
-      <c r="Q9" t="n">
-        <v>990</v>
-      </c>
-      <c r="R9" t="n">
-        <v>990</v>
-      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -3693,52 +3437,46 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.1552188552188552</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1185185185185185</v>
+        <v>0.1552188552188552</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.152020202020202</v>
+        <v>0.1508417508417509</v>
       </c>
       <c r="F10" s="5" t="n">
+        <v>0.1501683501683501</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1555555555555556</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1543771043771044</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.1538720538720539</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1594276094276094</v>
+      </c>
+      <c r="K10" s="5" t="n">
         <v>0.1552188552188552</v>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>0.1508417508417509</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0.1501683501683501</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0.1543771043771044</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>0.1538720538720539</v>
-      </c>
       <c r="L10" s="5" t="n">
-        <v>0.1594276094276094</v>
+        <v>0.1569023569023569</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.1552188552188552</v>
+        <v>0.1575757575757576</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1569023569023569</v>
+        <v>0.1570707070707071</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.1575757575757576</v>
+        <v>0.1570707070707071</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.1575757575757576</v>
-      </c>
-      <c r="Q10" s="6" t="n">
         <v>0.1570707070707071</v>
-      </c>
-      <c r="R10" s="6" t="n">
-        <v>0.1874747474747475</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -3748,10 +3486,10 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>74</v>
@@ -3763,37 +3501,31 @@
         <v>74</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>74</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>74</v>
       </c>
       <c r="L11" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>76</v>
+      </c>
+      <c r="N11" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="M11" s="4" t="n">
-        <v>74</v>
-      </c>
-      <c r="N11" s="4" t="n">
+      <c r="O11" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="O11" s="4" t="n">
-        <v>76</v>
-      </c>
       <c r="P11" s="4" t="n">
-        <v>76</v>
-      </c>
-      <c r="Q11" t="n">
         <v>75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>89</v>
       </c>
     </row>
     <row r="12" ht="22" customHeight="1">
@@ -3844,12 +3576,6 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -3858,52 +3584,46 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>73</v>
       </c>
       <c r="G13" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="H13" s="4" t="n">
         <v>74</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>73</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>73</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>73</v>
       </c>
       <c r="L13" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="N13" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="M13" s="4" t="n">
-        <v>73</v>
-      </c>
-      <c r="N13" s="4" t="n">
+      <c r="O13" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="O13" s="4" t="n">
-        <v>75</v>
-      </c>
       <c r="P13" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q13" t="n">
         <v>74</v>
-      </c>
-      <c r="R13" t="n">
-        <v>88</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="1">
@@ -3913,7 +3633,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -3952,12 +3672,6 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4009,12 +3723,6 @@
       <c r="P15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="B16" s="2" t="inlineStr">
@@ -4023,52 +3731,46 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.03</v>
+        <v>0.023</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.023</v>
+        <v>0.043</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>0.007</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.043</v>
+        <v>0.013</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="K16" s="4" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="O16" s="4" t="n">
         <v>0.013</v>
       </c>
-      <c r="L16" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="O16" s="4" t="n">
-        <v>0.025</v>
-      </c>
       <c r="P16" s="4" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="Q16" t="n">
         <v>0.013</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.004</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -4078,52 +3780,46 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="D17" s="4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F17" s="4" t="n">
         <v>0.007</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>0.008</v>
-      </c>
       <c r="G17" s="4" t="n">
-        <v>0.025</v>
+        <v>0.018</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0.007</v>
+        <v>0.047</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>0.018</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>0.047</v>
+        <v>0.01</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0.018</v>
+        <v>0.042</v>
       </c>
       <c r="L17" s="4" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="M17" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="N17" s="4" t="n">
         <v>0.042</v>
       </c>
-      <c r="N17" s="4" t="n">
-        <v>0.027</v>
-      </c>
       <c r="O17" s="4" t="n">
-        <v>0.01</v>
+        <v>0.023</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q17" t="n">
         <v>0.023</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.018</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -4139,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>0</v>
@@ -4148,36 +3844,30 @@
         <v>0.003</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0.002</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4188,10 +3878,10 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0</v>
+        <v>81.167</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>64.93300000000001</v>
+        <v>81.167</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>81.167</v>
@@ -4229,12 +3919,6 @@
       <c r="P19" s="4" t="n">
         <v>81.167</v>
       </c>
-      <c r="Q19" t="n">
-        <v>81.167</v>
-      </c>
-      <c r="R19" t="n">
-        <v>97.40000000000001</v>
-      </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="B20" s="2" t="inlineStr">
@@ -4243,52 +3927,46 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0</v>
+        <v>2439.167</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>1950.667</v>
+        <v>2439.167</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>2438.333</v>
+        <v>2439.167</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>2439.167</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>2439.167</v>
+        <v>2439.333</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>2439.167</v>
+        <v>2440.333</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>2439.333</v>
+        <v>2440.167</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>2440.333</v>
+        <v>2440</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>2440.167</v>
+        <v>2440.667</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>2440</v>
+        <v>2441.167</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>2440.667</v>
+        <v>2441</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>2441.167</v>
+        <v>2440.833</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>2441</v>
+        <v>2441.667</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>2441</v>
-      </c>
-      <c r="Q20" t="n">
         <v>2441.667</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2930</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1">
@@ -4298,7 +3976,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0</v>
+        <v>49011</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>49011</v>
@@ -4339,12 +4017,6 @@
       <c r="P21" s="4" t="n">
         <v>49011</v>
       </c>
-      <c r="Q21" t="n">
-        <v>49011</v>
-      </c>
-      <c r="R21" t="n">
-        <v>49011</v>
-      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -4353,52 +4025,46 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0</v>
+        <v>0.04976773921500615</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03980058898342549</v>
+        <v>0.04976773921500615</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.04975073622928187</v>
+        <v>0.04976773921500615</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.04976773921500615</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.04976773921500615</v>
+        <v>0.04977113981215102</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.04976773921500615</v>
+        <v>0.04979154339502017</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.04977113981215102</v>
+        <v>0.0497881427978753</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.04979154339502017</v>
+        <v>0.04978474220073045</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.0497881427978753</v>
+        <v>0.04979834458930988</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>0.04978474220073045</v>
+        <v>0.04980854638074446</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>0.04979834458930988</v>
+        <v>0.0498051457835996</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.04980854638074446</v>
+        <v>0.04980174518645474</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>0.0498051457835996</v>
+        <v>0.04981874817217903</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0.0498051457835996</v>
-      </c>
-      <c r="Q22" s="6" t="n">
         <v>0.04981874817217903</v>
-      </c>
-      <c r="R22" s="6" t="n">
-        <v>0.05978249780661484</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -4500,7 +4166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:R22"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4755,12 +4421,6 @@
       <c r="P5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
@@ -4769,7 +4429,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>134</v>
@@ -4810,12 +4470,6 @@
       <c r="P6" s="4" t="n">
         <v>134</v>
       </c>
-      <c r="Q6" t="n">
-        <v>134</v>
-      </c>
-      <c r="R6" t="n">
-        <v>134</v>
-      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -4865,12 +4519,6 @@
       <c r="P7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
@@ -4879,10 +4527,10 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>35</v>
@@ -4920,12 +4568,6 @@
       <c r="P8" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="Q8" t="n">
-        <v>35</v>
-      </c>
-      <c r="R8" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="9" ht="22" customHeight="1">
       <c r="B9" s="2" t="inlineStr">
@@ -4934,7 +4576,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>234</v>
@@ -4975,12 +4617,6 @@
       <c r="P9" s="4" t="n">
         <v>234</v>
       </c>
-      <c r="Q9" t="n">
-        <v>234</v>
-      </c>
-      <c r="R9" t="n">
-        <v>234</v>
-      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -4989,10 +4625,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1196581196581197</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1495726495726496</v>
@@ -5030,12 +4666,6 @@
       <c r="P10" s="5" t="n">
         <v>0.1495726495726496</v>
       </c>
-      <c r="Q10" s="6" t="n">
-        <v>0.1495726495726496</v>
-      </c>
-      <c r="R10" s="6" t="n">
-        <v>0.1794871794871795</v>
-      </c>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="B11" s="2" t="inlineStr">
@@ -5044,10 +4674,10 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>72</v>
@@ -5084,12 +4714,6 @@
       </c>
       <c r="P11" s="4" t="n">
         <v>72</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>72</v>
-      </c>
-      <c r="R11" t="n">
-        <v>87</v>
       </c>
     </row>
     <row r="12" ht="22" customHeight="1">
@@ -5140,12 +4764,6 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -5154,10 +4772,10 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>72</v>
@@ -5194,12 +4812,6 @@
       </c>
       <c r="P13" s="4" t="n">
         <v>72</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>72</v>
-      </c>
-      <c r="R13" t="n">
-        <v>86</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="1">
@@ -5209,7 +4821,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -5248,12 +4860,6 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5305,12 +4911,6 @@
       <c r="P15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="B16" s="2" t="inlineStr">
@@ -5322,28 +4922,28 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I16" s="4" t="n">
         <v>0.013</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" s="4" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -5352,19 +4952,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
         <v>0.037</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -5377,49 +4971,43 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="I17" s="4" t="n">
         <v>0.003</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" s="4" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="n">
         <v>0.003</v>
       </c>
-      <c r="L17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
         <v>0.01</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -5432,49 +5020,43 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4" t="n">
         <v>0.003</v>
       </c>
-      <c r="E18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="L18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
         <v>0.003</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -5484,10 +5066,10 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0</v>
+        <v>82.75</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>66.2</v>
+        <v>82.75</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>82.75</v>
@@ -5525,12 +5107,6 @@
       <c r="P19" s="4" t="n">
         <v>82.75</v>
       </c>
-      <c r="Q19" t="n">
-        <v>82.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>99.3</v>
-      </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="B20" s="2" t="inlineStr">
@@ -5539,10 +5115,10 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0</v>
+        <v>1234.167</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>987.333</v>
+        <v>1234.167</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1234.167</v>
@@ -5580,12 +5156,6 @@
       <c r="P20" s="4" t="n">
         <v>1234.167</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1234.167</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1481</v>
-      </c>
     </row>
     <row r="21" ht="22" customHeight="1">
       <c r="B21" s="2" t="inlineStr">
@@ -5594,7 +5164,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1848</v>
@@ -5635,12 +5205,6 @@
       <c r="P21" s="4" t="n">
         <v>1848</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1848</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1848</v>
-      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -5648,53 +5212,47 @@
           <t>HDD (xvda1) %</t>
         </is>
       </c>
-      <c r="C22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>0.5342712842712843</v>
-      </c>
-      <c r="E22" s="7" t="n">
+      <c r="C22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="D22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="E22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="F22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="G22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="J22" s="7" t="n">
+      <c r="H22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="K22" s="7" t="n">
+      <c r="I22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="L22" s="7" t="n">
+      <c r="J22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="M22" s="7" t="n">
+      <c r="K22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="N22" s="7" t="n">
+      <c r="L22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="M22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="P22" s="7" t="n">
+      <c r="N22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="Q22" s="6" t="n">
+      <c r="O22" s="6" t="n">
         <v>0.6678391053391054</v>
       </c>
-      <c r="R22" s="6" t="n">
-        <v>0.8014069264069265</v>
+      <c r="P22" s="6" t="n">
+        <v>0.6678391053391054</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -5796,7 +5354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:R22"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6051,12 +5609,6 @@
       <c r="P5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
@@ -6065,7 +5617,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>134</v>
@@ -6106,12 +5658,6 @@
       <c r="P6" s="4" t="n">
         <v>134</v>
       </c>
-      <c r="Q6" t="n">
-        <v>134</v>
-      </c>
-      <c r="R6" t="n">
-        <v>134</v>
-      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -6161,12 +5707,6 @@
       <c r="P7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
@@ -6175,10 +5715,10 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0</v>
+        <v>33.333</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>26.667</v>
+        <v>33.333</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>33.333</v>
@@ -6216,12 +5756,6 @@
       <c r="P8" s="4" t="n">
         <v>33.333</v>
       </c>
-      <c r="Q8" t="n">
-        <v>33.333</v>
-      </c>
-      <c r="R8" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="9" ht="22" customHeight="1">
       <c r="B9" s="2" t="inlineStr">
@@ -6230,7 +5764,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>234</v>
@@ -6271,12 +5805,6 @@
       <c r="P9" s="4" t="n">
         <v>234</v>
       </c>
-      <c r="Q9" t="n">
-        <v>234</v>
-      </c>
-      <c r="R9" t="n">
-        <v>234</v>
-      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -6285,10 +5813,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.1424501424501425</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.113960113960114</v>
+        <v>0.1424501424501425</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1424501424501425</v>
@@ -6326,12 +5854,6 @@
       <c r="P10" s="5" t="n">
         <v>0.1424501424501425</v>
       </c>
-      <c r="Q10" s="6" t="n">
-        <v>0.1424501424501425</v>
-      </c>
-      <c r="R10" s="6" t="n">
-        <v>0.1709401709401709</v>
-      </c>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="B11" s="2" t="inlineStr">
@@ -6340,10 +5862,10 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>72</v>
@@ -6380,12 +5902,6 @@
       </c>
       <c r="P11" s="4" t="n">
         <v>72</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>72</v>
-      </c>
-      <c r="R11" t="n">
-        <v>87</v>
       </c>
     </row>
     <row r="12" ht="22" customHeight="1">
@@ -6436,12 +5952,6 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -6450,10 +5960,10 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>72</v>
@@ -6490,12 +6000,6 @@
       </c>
       <c r="P13" s="4" t="n">
         <v>72</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>72</v>
-      </c>
-      <c r="R13" t="n">
-        <v>86</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="1">
@@ -6505,7 +6009,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -6544,12 +6048,6 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6601,12 +6099,6 @@
       <c r="P15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="B16" s="2" t="inlineStr">
@@ -6627,40 +6119,34 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="n">
         <v>0.025</v>
       </c>
-      <c r="J16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
         <v>0.09</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.032</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -6673,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0</v>
@@ -6682,40 +6168,34 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
         <v>0.022</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -6737,40 +6217,34 @@
         <v>0</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="J18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
         <v>0.007</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.002</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -6780,10 +6254,10 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0</v>
+        <v>82.75</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>66.2</v>
+        <v>82.75</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>82.75</v>
@@ -6821,12 +6295,6 @@
       <c r="P19" s="4" t="n">
         <v>82.75</v>
       </c>
-      <c r="Q19" t="n">
-        <v>82.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>99.3</v>
-      </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="B20" s="2" t="inlineStr">
@@ -6835,10 +6303,10 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0</v>
+        <v>1229.167</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>983.333</v>
+        <v>1229.167</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1229.167</v>
@@ -6876,12 +6344,6 @@
       <c r="P20" s="4" t="n">
         <v>1229.167</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1229.167</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1475</v>
-      </c>
     </row>
     <row r="21" ht="22" customHeight="1">
       <c r="B21" s="2" t="inlineStr">
@@ -6890,7 +6352,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1848</v>
@@ -6931,12 +6393,6 @@
       <c r="P21" s="4" t="n">
         <v>1848</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1848</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1848</v>
-      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -6944,53 +6400,47 @@
           <t>HDD (xvda1) %</t>
         </is>
       </c>
-      <c r="C22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>0.5321067821067821</v>
-      </c>
-      <c r="E22" s="7" t="n">
+      <c r="C22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="D22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="E22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="F22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="G22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="J22" s="7" t="n">
+      <c r="H22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="K22" s="7" t="n">
+      <c r="I22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="L22" s="7" t="n">
+      <c r="J22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="M22" s="7" t="n">
+      <c r="K22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="N22" s="7" t="n">
+      <c r="L22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="M22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="P22" s="7" t="n">
+      <c r="N22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="Q22" s="6" t="n">
+      <c r="O22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="R22" s="6" t="n">
-        <v>0.7981601731601732</v>
+      <c r="P22" s="6" t="n">
+        <v>0.6651334776334776</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -7092,7 +6542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:R22"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7347,12 +6797,6 @@
       <c r="P5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
@@ -7361,7 +6805,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>134</v>
@@ -7402,12 +6846,6 @@
       <c r="P6" s="4" t="n">
         <v>134</v>
       </c>
-      <c r="Q6" t="n">
-        <v>134</v>
-      </c>
-      <c r="R6" t="n">
-        <v>134</v>
-      </c>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
@@ -7457,12 +6895,6 @@
       <c r="P7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
@@ -7471,10 +6903,10 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>26</v>
+        <v>32.5</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>32.5</v>
@@ -7483,13 +6915,13 @@
         <v>32.5</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>32.5</v>
+        <v>32.667</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>32.5</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>32.667</v>
+        <v>32.5</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>32.5</v>
@@ -7512,12 +6944,6 @@
       <c r="P8" s="4" t="n">
         <v>32.5</v>
       </c>
-      <c r="Q8" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="9" ht="22" customHeight="1">
       <c r="B9" s="2" t="inlineStr">
@@ -7526,7 +6952,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>234</v>
@@ -7567,12 +6993,6 @@
       <c r="P9" s="4" t="n">
         <v>234</v>
       </c>
-      <c r="Q9" t="n">
-        <v>234</v>
-      </c>
-      <c r="R9" t="n">
-        <v>234</v>
-      </c>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="2" t="inlineStr">
@@ -7581,10 +7001,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1388888888888889</v>
@@ -7593,13 +7013,13 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1396011396011396</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>0.1388888888888889</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.1396011396011396</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0.1388888888888889</v>
@@ -7622,12 +7042,6 @@
       <c r="P10" s="5" t="n">
         <v>0.1388888888888889</v>
       </c>
-      <c r="Q10" s="6" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="R10" s="6" t="n">
-        <v>0.1666666666666667</v>
-      </c>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="B11" s="2" t="inlineStr">
@@ -7636,10 +7050,10 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>72</v>
@@ -7676,12 +7090,6 @@
       </c>
       <c r="P11" s="4" t="n">
         <v>72</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>72</v>
-      </c>
-      <c r="R11" t="n">
-        <v>87</v>
       </c>
     </row>
     <row r="12" ht="22" customHeight="1">
@@ -7732,12 +7140,6 @@
       <c r="P12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="2" t="inlineStr">
@@ -7746,10 +7148,10 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>72</v>
@@ -7786,12 +7188,6 @@
       </c>
       <c r="P13" s="4" t="n">
         <v>72</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>72</v>
-      </c>
-      <c r="R13" t="n">
-        <v>86</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="1">
@@ -7801,7 +7197,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -7840,12 +7236,6 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7897,12 +7287,6 @@
       <c r="P15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="B16" s="2" t="inlineStr">
@@ -7917,45 +7301,39 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="N16" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7972,46 +7350,40 @@
         <v>0</v>
       </c>
       <c r="E17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="F17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K17" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
         <v>0.002</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -8027,45 +7399,39 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="n">
         <v>0.003</v>
       </c>
-      <c r="F18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="n">
         <v>0.003</v>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8076,10 +7442,10 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0</v>
+        <v>82.833</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>66.267</v>
+        <v>82.833</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>82.833</v>
@@ -8117,12 +7483,6 @@
       <c r="P19" s="4" t="n">
         <v>82.833</v>
       </c>
-      <c r="Q19" t="n">
-        <v>82.833</v>
-      </c>
-      <c r="R19" t="n">
-        <v>99.40000000000001</v>
-      </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="B20" s="2" t="inlineStr">
@@ -8131,10 +7491,10 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0</v>
+        <v>1229.167</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>983.333</v>
+        <v>1229.167</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1229.167</v>
@@ -8172,12 +7532,6 @@
       <c r="P20" s="4" t="n">
         <v>1229.167</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1229.167</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1475</v>
-      </c>
     </row>
     <row r="21" ht="22" customHeight="1">
       <c r="B21" s="2" t="inlineStr">
@@ -8186,7 +7540,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1848</v>
@@ -8227,12 +7581,6 @@
       <c r="P21" s="4" t="n">
         <v>1848</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1848</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1848</v>
-      </c>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="2" t="inlineStr">
@@ -8240,53 +7588,47 @@
           <t>HDD (xvda1) %</t>
         </is>
       </c>
-      <c r="C22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>0.5321067821067821</v>
-      </c>
-      <c r="E22" s="7" t="n">
+      <c r="C22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="D22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="E22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="F22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="G22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="J22" s="7" t="n">
+      <c r="H22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="K22" s="7" t="n">
+      <c r="I22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="L22" s="7" t="n">
+      <c r="J22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="M22" s="7" t="n">
+      <c r="K22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="N22" s="7" t="n">
+      <c r="L22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="M22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="P22" s="7" t="n">
+      <c r="N22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="Q22" s="6" t="n">
+      <c r="O22" s="6" t="n">
         <v>0.6651334776334776</v>
       </c>
-      <c r="R22" s="6" t="n">
-        <v>0.7981601731601732</v>
+      <c r="P22" s="6" t="n">
+        <v>0.6651334776334776</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>

--- a/res.xlsx
+++ b/res.xlsx
@@ -819,46 +819,46 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>218</v>
+        <v>222.5</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>218</v>
+        <v>222.5</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>217.667</v>
+        <v>222.167</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>217.833</v>
+        <v>220</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>217.5</v>
+        <v>220.333</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>217.667</v>
+        <v>222.5</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>217.667</v>
+        <v>225.833</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>217.333</v>
+        <v>221.333</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>218.167</v>
+        <v>224</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>218.167</v>
+        <v>222.333</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>218.333</v>
+        <v>226.667</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>217.833</v>
+        <v>222.167</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>218</v>
+        <v>229.333</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>218</v>
+        <v>229.333</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -917,46 +917,46 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1091091091091091</v>
+        <v>0.1113613613613614</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1091091091091091</v>
+        <v>0.1113613613613614</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1089422756089423</v>
+        <v>0.1111945278611945</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1090256923590257</v>
+        <v>0.1101101101101101</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1088588588588589</v>
+        <v>0.1102769436102769</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1089422756089423</v>
+        <v>0.1113613613613614</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.1089422756089423</v>
+        <v>0.1130296963630297</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1087754421087754</v>
+        <v>0.1107774441107774</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1091925258591925</v>
+        <v>0.1121121121121121</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0.1091925258591925</v>
+        <v>0.1112779446112779</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.109275942609276</v>
+        <v>0.1134467801134468</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1090256923590257</v>
+        <v>0.1111945278611945</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.1091091091091091</v>
+        <v>0.1147814481147815</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.1091091091091091</v>
+        <v>0.1147814481147815</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -966,37 +966,37 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>100</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N11" s="4" t="n">
         <v>100</v>
@@ -1064,46 +1064,46 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N13" s="4" t="n">
         <v>98</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="1">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>1</v>
@@ -1137,22 +1137,22 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" ht="22" customHeight="1">
@@ -1211,46 +1211,46 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.187</v>
+        <v>0.195</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0.187</v>
+        <v>0.195</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.148</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>0.267</v>
+        <v>0.19</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.123</v>
+        <v>0.363</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>0.23</v>
+        <v>0.317</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0.167</v>
+        <v>0.18</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>0.173</v>
+        <v>0.113</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>0.31</v>
+        <v>0.317</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>0.118</v>
+        <v>0.602</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>0.217</v>
+        <v>0.677</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0.217</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -1260,46 +1260,46 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.177</v>
+        <v>0.167</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0.177</v>
+        <v>0.167</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.228</v>
+        <v>0.132</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0.18</v>
+        <v>0.187</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0.175</v>
+        <v>0.14</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0.228</v>
+        <v>0.368</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>0.168</v>
+        <v>0.335</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>0.185</v>
+        <v>0.305</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0.167</v>
+        <v>0.3</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>0.25</v>
+        <v>0.138</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>0.225</v>
+        <v>0.373</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0.143</v>
+        <v>0.79</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>0.218</v>
+        <v>0.663</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0.218</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -1309,46 +1309,46 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="L18" s="4" t="n">
         <v>0.193</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="L18" s="4" t="n">
-        <v>0.233</v>
-      </c>
       <c r="M18" s="4" t="n">
-        <v>0.22</v>
+        <v>0.273</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>0.177</v>
+        <v>0.742</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>0.192</v>
+        <v>0.637</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0.192</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -1358,46 +1358,46 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>76.167</v>
+        <v>76.083</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="1">
@@ -1407,46 +1407,46 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>13789.833</v>
+        <v>14044.833</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>13789.833</v>
+        <v>14044.833</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>13791.833</v>
+        <v>14046.833</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>13794.167</v>
+        <v>14049.333</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>13796.333</v>
+        <v>14051.667</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>13798.667</v>
+        <v>14054.5</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>13800.833</v>
+        <v>14072.833</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>13803.167</v>
+        <v>14083.333</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>13805.333</v>
+        <v>14086.5</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>13807.667</v>
+        <v>14088.833</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>13810</v>
+        <v>14091.333</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>13812.333</v>
+        <v>14096.833</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>13814.5</v>
+        <v>14101</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>13814.5</v>
+        <v>14101</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1">
@@ -1505,46 +1505,46 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.3604054501420034</v>
+        <v>0.3670700259613542</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3604054501420034</v>
+        <v>0.3670700259613542</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3604577213249003</v>
+        <v>0.367122297144251</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3605187043716133</v>
+        <v>0.3671876361228721</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3605753314864182</v>
+        <v>0.3672486191695851</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3606363145331312</v>
+        <v>0.3673226700120223</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.3606929416479362</v>
+        <v>0.3678018225219103</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3607539246946492</v>
+        <v>0.3680762462321189</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.3608105518094541</v>
+        <v>0.3681590089383723</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>0.3608715348561671</v>
+        <v>0.3682199919850853</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>0.3609325179028802</v>
+        <v>0.3682853309637064</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3609935009495931</v>
+        <v>0.3684290767166728</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>0.3610501280643981</v>
+        <v>0.3685379750143746</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0.3610501280643981</v>
+        <v>0.3685379750143746</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -2007,46 +2007,46 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>217.833</v>
+        <v>208</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>215.333</v>
+        <v>210</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>216.833</v>
+        <v>210</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>216.5</v>
+        <v>214.5</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>216</v>
+        <v>179.167</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>215.667</v>
+        <v>182.5</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>215.667</v>
+        <v>186.833</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>216</v>
+        <v>187.833</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>215.833</v>
+        <v>198.5</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>215.167</v>
+        <v>211.833</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>215.333</v>
+        <v>212.333</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>215.333</v>
+        <v>212.333</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -2105,46 +2105,46 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2120285423037717</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2120285423037717</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2220523275569147</v>
+        <v>0.2120285423037717</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2195039075773021</v>
+        <v>0.2140672782874618</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2210329595650697</v>
+        <v>0.2140672782874618</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2206931702344546</v>
+        <v>0.2186544342507645</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.2201834862385321</v>
+        <v>0.1826367652055725</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2198436969079171</v>
+        <v>0.1860346585117227</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2198436969079171</v>
+        <v>0.190451919809718</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0.2201834862385321</v>
+        <v>0.191471287801563</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.2200135915732246</v>
+        <v>0.2023445463812436</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2193340129119946</v>
+        <v>0.2159361196058444</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.2195039075773021</v>
+        <v>0.2164458036017669</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.2195039075773021</v>
+        <v>0.2164458036017669</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -2154,46 +2154,46 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F11" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="G11" s="4" t="n">
         <v>70</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>72</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>71</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" ht="22" customHeight="1">
@@ -2252,46 +2252,46 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="I13" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>71</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>72</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="I13" s="4" t="n">
-        <v>69</v>
-      </c>
       <c r="J13" s="4" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="1">
@@ -2399,46 +2399,46 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.052</v>
+        <v>0.003</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>0.01</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.048</v>
+        <v>0.033</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>0.062</v>
+        <v>0.035</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.11</v>
+        <v>0.003</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>0.067</v>
+        <v>0.033</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>0.043</v>
+        <v>0.005</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>0.007</v>
+        <v>0.095</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>0.033</v>
+        <v>0.003</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -2448,46 +2448,46 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="E17" s="4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J17" s="4" t="n">
         <v>0.033</v>
       </c>
-      <c r="F17" s="4" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="G17" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>0.062</v>
-      </c>
       <c r="K17" s="4" t="n">
-        <v>0.033</v>
+        <v>0.013</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>0.037</v>
+        <v>0.02</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>0.018</v>
+        <v>0.068</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0.048</v>
+        <v>0.003</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>0.022</v>
+        <v>0.017</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0.022</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -2497,40 +2497,40 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="H18" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="E18" s="4" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>0.035</v>
-      </c>
       <c r="I18" s="4" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>0.03</v>
+        <v>0.003</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>0.002</v>
+        <v>0.023</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="O18" s="4" t="n">
         <v>0.003</v>
@@ -2546,46 +2546,46 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>77.34999999999999</v>
+        <v>76.967</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>77.34999999999999</v>
+        <v>76.967</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>76.45</v>
+        <v>80.3</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>73.333</v>
+        <v>74.267</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>75.717</v>
+        <v>76.75</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>71.767</v>
+        <v>78.333</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>77.917</v>
+        <v>78.833</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>78.367</v>
+        <v>80.283</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>78.883</v>
+        <v>79.217</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>76.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>77.367</v>
+        <v>79.783</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>74.383</v>
+        <v>79.81699999999999</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>75.15000000000001</v>
+        <v>78.833</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>75.15000000000001</v>
+        <v>78.833</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="1">
@@ -2742,46 +2742,46 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>3030</v>
+        <v>3051.667</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>3030</v>
+        <v>3051.667</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>3030.833</v>
+        <v>3049.333</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>3030.833</v>
+        <v>3046.333</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>3031.667</v>
+        <v>3046.667</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>3032.333</v>
+        <v>3046.667</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>3032.5</v>
+        <v>3045.833</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>3033.333</v>
+        <v>3046.667</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>3033.333</v>
+        <v>3046.667</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>3034</v>
+        <v>3046.667</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>3034.167</v>
+        <v>3049.5</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>3034.667</v>
+        <v>3052.5</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>3035</v>
+        <v>3052.5</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>3035</v>
+        <v>3052.5</v>
       </c>
     </row>
     <row r="24" ht="22" customHeight="1">
@@ -2840,46 +2840,46 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1271933506842415</v>
+        <v>0.1281028740939748</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.1271933506842415</v>
+        <v>0.1281028740939748</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.1272283323538466</v>
+        <v>0.1280049254190804</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1272283323538466</v>
+        <v>0.127878991408502</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.1272633140234517</v>
+        <v>0.127892984076344</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.1272912993591358</v>
+        <v>0.127892984076344</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.1272982956930568</v>
+        <v>0.1278580024067389</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.127333277362662</v>
+        <v>0.127892984076344</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.127333277362662</v>
+        <v>0.127892984076344</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>0.1273612626983461</v>
+        <v>0.127892984076344</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>0.1273682590322671</v>
+        <v>0.1280119217530014</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1273892480340302</v>
+        <v>0.1281378557635799</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>0.1274032407018722</v>
+        <v>0.1281378557635799</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>0.1274032407018722</v>
+        <v>0.1281378557635799</v>
       </c>
     </row>
     <row r="26" ht="22" customHeight="1"/>
@@ -3192,46 +3192,46 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20</v>
+        <v>20.833</v>
       </c>
     </row>
     <row r="6" ht="22" customHeight="1">
@@ -3290,46 +3290,46 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.01748251748251748</v>
+        <v>0.01821095571095571</v>
       </c>
     </row>
     <row r="8" ht="22" customHeight="1">
@@ -3339,46 +3339,46 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>153.667</v>
+        <v>142.167</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>153.667</v>
+        <v>142.167</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>149.333</v>
+        <v>143.833</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>148.667</v>
+        <v>147.5</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>154</v>
+        <v>150.333</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>152.833</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>152.333</v>
+        <v>159.333</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>157.833</v>
+        <v>156</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>153.667</v>
+        <v>156.167</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>155.333</v>
+        <v>160.167</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>156</v>
+        <v>156.667</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>155.5</v>
+        <v>157</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>155.5</v>
+        <v>162.333</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>155.5</v>
+        <v>162.333</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -3437,46 +3437,46 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1552188552188552</v>
+        <v>0.1436026936026936</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1552188552188552</v>
+        <v>0.1436026936026936</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1508417508417509</v>
+        <v>0.1452861952861953</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1501683501683501</v>
+        <v>0.148989898989899</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.1518518518518518</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>0.1543771043771044</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.1538720538720539</v>
+        <v>0.1609427609427609</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1594276094276094</v>
+        <v>0.1575757575757576</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1552188552188552</v>
+        <v>0.1577441077441077</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0.1569023569023569</v>
+        <v>0.1617845117845118</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.1575757575757576</v>
+        <v>0.1582491582491583</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1570707070707071</v>
+        <v>0.1585858585858586</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.1570707070707071</v>
+        <v>0.163973063973064</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.1570707070707071</v>
+        <v>0.163973063973064</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -3498,25 +3498,25 @@
         <v>74</v>
       </c>
       <c r="G11" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="H11" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>75</v>
-      </c>
       <c r="I11" s="4" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>74</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N11" s="4" t="n">
         <v>74</v>
@@ -3590,31 +3590,31 @@
         <v>73</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>73</v>
       </c>
       <c r="G13" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="H13" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>74</v>
-      </c>
       <c r="I13" s="4" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>73</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N13" s="4" t="n">
         <v>73</v>
@@ -3731,40 +3731,40 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.023</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F16" s="4" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="M16" s="4" t="n">
         <v>0.007</v>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="L16" s="4" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v>0.025</v>
-      </c>
       <c r="N16" s="4" t="n">
-        <v>0.073</v>
+        <v>0.007</v>
       </c>
       <c r="O16" s="4" t="n">
         <v>0.013</v>
@@ -3780,46 +3780,46 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="F17" s="4" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="H17" s="4" t="n">
         <v>0.007</v>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>0.047</v>
-      </c>
       <c r="I17" s="4" t="n">
-        <v>0.018</v>
+        <v>0.03</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>0.01</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0.042</v>
+        <v>0.023</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>0.027</v>
+        <v>0.008</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0.042</v>
+        <v>0.015</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>0.023</v>
+        <v>0.015</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0.023</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -3835,34 +3835,34 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="n">
         <v>0.003</v>
       </c>
-      <c r="F18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="n">
+      <c r="L18" s="4" t="n">
         <v>0.003</v>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L18" s="4" t="n">
-        <v>0.002</v>
-      </c>
       <c r="M18" s="4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
         <v>0</v>
@@ -3927,46 +3927,46 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>2439.167</v>
+        <v>2463.333</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>2439.167</v>
+        <v>2463.333</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>2439.167</v>
+        <v>2463.833</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>2439.167</v>
+        <v>2464.167</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>2439.333</v>
+        <v>2464.333</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>2440.333</v>
+        <v>2464.167</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>2440.167</v>
+        <v>2464.5</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>2440</v>
+        <v>2465</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>2440.667</v>
+        <v>2465</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>2441.167</v>
+        <v>2465</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>2441</v>
+        <v>2465</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>2440.833</v>
+        <v>2465.333</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>2441.667</v>
+        <v>2465.833</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>2441.667</v>
+        <v>2465.833</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1">
@@ -4025,46 +4025,46 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.04976773921500615</v>
+        <v>0.05026082580101066</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04976773921500615</v>
+        <v>0.05026082580101066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.04976773921500615</v>
+        <v>0.05027102759244523</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.04976773921500615</v>
+        <v>0.05027782878673494</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.04977113981215102</v>
+        <v>0.05028122938387981</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.04979154339502017</v>
+        <v>0.05027782878673494</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.0497881427978753</v>
+        <v>0.05028462998102467</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.04978474220073045</v>
+        <v>0.05029483177245924</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.04979834458930988</v>
+        <v>0.05029483177245924</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>0.04980854638074446</v>
+        <v>0.05029483177245924</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>0.0498051457835996</v>
+        <v>0.05029483177245924</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.04980174518645474</v>
+        <v>0.05030163296674896</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>0.04981874817217903</v>
+        <v>0.05031183475818354</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0.04981874817217903</v>
+        <v>0.05031183475818354</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -4545,28 +4545,28 @@
         <v>35</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>35</v>
+        <v>36.167</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>35</v>
+        <v>35.833</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>35</v>
+        <v>35.833</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>35</v>
+        <v>35.833</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>35</v>
+        <v>35.833</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>35</v>
+        <v>35.833</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>35</v>
+        <v>35.833</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>35</v>
+        <v>35.833</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -4643,28 +4643,28 @@
         <v>0.1495726495726496</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.1495726495726496</v>
+        <v>0.1545584045584046</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1495726495726496</v>
+        <v>0.1531339031339032</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1495726495726496</v>
+        <v>0.1531339031339032</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0.1495726495726496</v>
+        <v>0.1531339031339032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.1495726495726496</v>
+        <v>0.1531339031339032</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1495726495726496</v>
+        <v>0.1531339031339032</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.1495726495726496</v>
+        <v>0.1531339031339032</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.1495726495726496</v>
+        <v>0.1531339031339032</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -4692,7 +4692,7 @@
         <v>72</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>72</v>
@@ -4790,7 +4790,7 @@
         <v>72</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>72</v>
@@ -4919,46 +4919,46 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="K16" s="4" t="n">
         <v>0.013</v>
       </c>
-      <c r="F16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="L16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="n">
         <v>0.013</v>
       </c>
-      <c r="J16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="O16" s="4" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -4968,31 +4968,31 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0.003</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>0.003</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>0</v>
@@ -5004,10 +5004,10 @@
         <v>0.003</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="E18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="F18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="n">
+      <c r="K18" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="L18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="n">
         <v>0.002</v>
       </c>
-      <c r="J18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" s="4" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -5115,46 +5115,46 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>1234.167</v>
+        <v>1233.333</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1">
@@ -5213,46 +5213,46 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6678391053391054</v>
+        <v>0.6673881673881673</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>0</v>
@@ -6128,25 +6128,25 @@
         <v>0</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -6168,34 +6168,34 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="n">
         <v>0.005</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="L17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" s="4" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1">
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>0</v>
@@ -6226,10 +6226,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
@@ -6238,13 +6238,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -6303,46 +6303,46 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>1229.167</v>
+        <v>1228.333</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1">
@@ -6401,46 +6401,46 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6651334776334776</v>
+        <v>0.6646825396825397</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1"/>
@@ -6915,7 +6915,7 @@
         <v>32.5</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>32.667</v>
+        <v>32.5</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>32.5</v>
@@ -7013,7 +7013,7 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1396011396011396</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>0.1388888888888889</v>
@@ -7301,40 +7301,40 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.067</v>
+        <v>0.002</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="K16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M16" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="L16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="N16" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -7350,34 +7350,34 @@
         <v>0</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0.015</v>
+        <v>0.002</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>0.002</v>
@@ -7399,34 +7399,34 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="K18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M18" s="4" t="n">
         <v>0.003</v>
       </c>
-      <c r="L18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" s="4" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
         <v>0</v>
